--- a/Transnational_Crime.xlsx
+++ b/Transnational_Crime.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\msado\Documents\SynologyDrive\Studia\TWD\Projekt_1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zawol\Documents\TWD\proj1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{51D8D1C3-2A3B-4554-AE14-0C94A7D15AA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB1EC95D-E05D-4321-A1CC-CF43A9D92174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Total" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="152">
   <si>
     <t>Organ</t>
   </si>
@@ -283,99 +283,30 @@
     <t>South Korea535</t>
   </si>
   <si>
-    <t>Transplant</t>
-  </si>
-  <si>
-    <t>Vendor</t>
-  </si>
-  <si>
-    <t>Recipient</t>
-  </si>
-  <si>
-    <t>Markup</t>
-  </si>
-  <si>
-    <t>performed in</t>
-  </si>
-  <si>
-    <t>From</t>
-  </si>
-  <si>
-    <t>Received</t>
-  </si>
-  <si>
-    <t>Paid</t>
-  </si>
-  <si>
-    <t>China536</t>
-  </si>
-  <si>
     <t>China</t>
   </si>
   <si>
     <t>Israel</t>
   </si>
   <si>
-    <t>1,900%</t>
-  </si>
-  <si>
-    <t>Costa Rica537</t>
-  </si>
-  <si>
-    <t>Costa Rice</t>
-  </si>
-  <si>
-    <t>Kosovo538</t>
-  </si>
-  <si>
     <t>Moldova</t>
   </si>
   <si>
     <t>Canada</t>
   </si>
   <si>
-    <t>Peru539</t>
-  </si>
-  <si>
     <t>Peru</t>
   </si>
   <si>
     <t>Mexico</t>
   </si>
   <si>
-    <t>1,686%</t>
-  </si>
-  <si>
-    <t>Singapore540</t>
-  </si>
-  <si>
     <t>Indonesia</t>
   </si>
   <si>
     <t>Singapore</t>
   </si>
   <si>
-    <t>1,166%</t>
-  </si>
-  <si>
-    <t>South Africa541</t>
-  </si>
-  <si>
-    <t>South Africa542</t>
-  </si>
-  <si>
-    <t>Brazil, Romania</t>
-  </si>
-  <si>
-    <t>United States543</t>
-  </si>
-  <si>
-    <t>Israel, U.S.</t>
-  </si>
-  <si>
-    <t>1,100%</t>
-  </si>
-  <si>
     <t>Bangladesh544</t>
   </si>
   <si>
@@ -512,6 +443,42 @@
   </si>
   <si>
     <t>$32 620 000</t>
+  </si>
+  <si>
+    <t>Transplant performed in</t>
+  </si>
+  <si>
+    <t>Vendor_From</t>
+  </si>
+  <si>
+    <t>Vendor_Received</t>
+  </si>
+  <si>
+    <t>Recipient_From</t>
+  </si>
+  <si>
+    <t>Recipient_Paid</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>Kosovo</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>U.S.</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>Markup_Pr</t>
   </si>
 </sst>
 </file>
@@ -521,7 +488,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$$-809]#,##0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -536,6 +503,11 @@
     <font>
       <sz val="11"/>
       <color rgb="FF2B2A29"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -560,13 +532,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -873,19 +853,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -905,47 +885,47 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="4">
         <v>7995</v>
       </c>
       <c r="C2" t="s">
-        <v>144</v>
+        <v>121</v>
       </c>
       <c r="D2" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="E2" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="F2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>2615</v>
       </c>
       <c r="C3" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="D3" t="s">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c r="E3" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="F3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -953,19 +933,19 @@
         <v>654</v>
       </c>
       <c r="C4" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="D4" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="E4" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="F4" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -973,19 +953,19 @@
         <v>469</v>
       </c>
       <c r="C5" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="D5" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="E5" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="F5" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -993,20 +973,20 @@
         <v>233</v>
       </c>
       <c r="C6" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="D6" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="E6" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="F6" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B7" s="5"/>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1021,13 +1001,13 @@
       <selection activeCell="E70" sqref="E70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.453125" customWidth="1"/>
+    <col min="3" max="3" width="12.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1038,7 +1018,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1049,7 +1029,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1060,7 +1040,7 @@
         <v>32000</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1071,7 +1051,7 @@
         <v>62000</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1082,7 +1062,7 @@
         <v>63000</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1093,7 +1073,7 @@
         <v>65000</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1104,7 +1084,7 @@
         <v>65000</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1115,7 +1095,7 @@
         <v>70000</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -1126,7 +1106,7 @@
         <v>85000</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -1137,7 +1117,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -1148,7 +1128,7 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -1159,7 +1139,7 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -1170,7 +1150,7 @@
         <v>25700</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -1181,7 +1161,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -1192,7 +1172,7 @@
         <v>47000</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -1203,7 +1183,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -1214,7 +1194,7 @@
         <v>120000</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -1225,7 +1205,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -1236,7 +1216,7 @@
         <v>175000</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -1247,7 +1227,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -1258,7 +1238,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -1269,7 +1249,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -1280,7 +1260,7 @@
         <v>125000</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -1291,7 +1271,7 @@
         <v>14000</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -1302,7 +1282,7 @@
         <v>20500</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -1313,7 +1293,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -1324,7 +1304,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -1335,7 +1315,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -1346,7 +1326,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>6</v>
       </c>
@@ -1357,7 +1337,7 @@
         <v>85000</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>6</v>
       </c>
@@ -1368,7 +1348,7 @@
         <v>237000</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>6</v>
       </c>
@@ -1379,7 +1359,7 @@
         <v>120000</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>6</v>
       </c>
@@ -1390,7 +1370,7 @@
         <v>53000</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>6</v>
       </c>
@@ -1401,7 +1381,7 @@
         <v>122000</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>6</v>
       </c>
@@ -1412,7 +1392,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>6</v>
       </c>
@@ -1423,7 +1403,7 @@
         <v>118276</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>6</v>
       </c>
@@ -1434,7 +1414,7 @@
         <v>145000</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>6</v>
       </c>
@@ -1445,7 +1425,7 @@
         <v>120000</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>6</v>
       </c>
@@ -1456,7 +1436,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>6</v>
       </c>
@@ -1467,7 +1447,7 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>7</v>
       </c>
@@ -1478,7 +1458,7 @@
         <v>21900</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>7</v>
       </c>
@@ -1489,7 +1469,7 @@
         <v>98000</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>7</v>
       </c>
@@ -1500,7 +1480,7 @@
         <v>120000</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>7</v>
       </c>
@@ -1511,7 +1491,7 @@
         <v>130000</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>7</v>
       </c>
@@ -1522,7 +1502,7 @@
         <v>130000</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>7</v>
       </c>
@@ -1533,7 +1513,7 @@
         <v>130000</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>7</v>
       </c>
@@ -1544,7 +1524,7 @@
         <v>160000</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>7</v>
       </c>
@@ -1555,7 +1535,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>7</v>
       </c>
@@ -1566,7 +1546,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>7</v>
       </c>
@@ -1577,7 +1557,7 @@
         <v>165600</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>7</v>
       </c>
@@ -1588,7 +1568,7 @@
         <v>290000</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>8</v>
       </c>
@@ -1599,7 +1579,7 @@
         <v>130000</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>8</v>
       </c>
@@ -1610,7 +1590,7 @@
         <v>130000</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>8</v>
       </c>
@@ -1621,7 +1601,7 @@
         <v>190000</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>8</v>
       </c>
@@ -1632,7 +1612,7 @@
         <v>90000</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>8</v>
       </c>
@@ -1643,7 +1623,7 @@
         <v>65000</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>8</v>
       </c>
@@ -1654,7 +1634,7 @@
         <v>290000</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>8</v>
       </c>
@@ -1665,7 +1645,7 @@
         <v>290000</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>8</v>
       </c>
@@ -1676,7 +1656,7 @@
         <v>290000</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>8</v>
       </c>
@@ -1687,7 +1667,7 @@
         <v>290000</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>9</v>
       </c>
@@ -1698,7 +1678,7 @@
         <v>110000</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>9</v>
       </c>
@@ -1709,7 +1689,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>9</v>
       </c>
@@ -1720,7 +1700,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>9</v>
       </c>
@@ -1731,7 +1711,7 @@
         <v>170000</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>9</v>
       </c>
@@ -1742,7 +1722,7 @@
         <v>290000</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>9</v>
       </c>
@@ -1753,7 +1733,7 @@
         <v>290000</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>9</v>
       </c>
@@ -1764,7 +1744,7 @@
         <v>290000</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>10</v>
       </c>
@@ -1775,7 +1755,7 @@
         <v>88000</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>10</v>
       </c>
@@ -1786,7 +1766,7 @@
         <v>110000</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>10</v>
       </c>
@@ -1797,7 +1777,7 @@
         <v>110000</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>10</v>
       </c>
@@ -1808,7 +1788,7 @@
         <v>140000</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>10</v>
       </c>
@@ -1819,7 +1799,7 @@
         <v>140000</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>10</v>
       </c>
@@ -1837,211 +1817,200 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4C4B575-0B29-4876-B4F2-DF14BBFF0D3E}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" s="6" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="14" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="8">
+        <v>5000</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E2" s="8">
+        <v>100000</v>
+      </c>
+      <c r="F2" s="9">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="14" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C3" s="8">
+        <v>18500</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E3" s="8">
+        <v>175000</v>
+      </c>
+      <c r="F3" s="9">
+        <v>8.4600000000000009</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="14" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="C4" s="8">
+        <v>12000</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="E4" s="8">
+        <v>120000</v>
+      </c>
+      <c r="F4" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="14" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B5" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" s="8">
+        <v>7000</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E5" s="8">
+        <v>125000</v>
+      </c>
+      <c r="F5" s="9">
+        <v>16.86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="14" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="C6" s="8">
+        <v>18700</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C3" s="3">
-        <v>5000</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E3" s="3">
-        <v>100000</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C4" s="3">
-        <v>18500</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E4" s="3">
-        <v>175000</v>
-      </c>
-      <c r="F4" s="4">
-        <v>8.4600000000000009</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C5" s="3">
-        <v>12000</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E5" s="3">
+      <c r="E6" s="8">
+        <v>237000</v>
+      </c>
+      <c r="F6" s="9">
+        <v>11.66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="14" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="8">
+        <v>20000</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E7" s="8">
         <v>120000</v>
       </c>
-      <c r="F5" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C6" s="3">
-        <v>7000</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E6" s="3">
-        <v>125000</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C7" s="3">
-        <v>18700</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E7" s="3">
-        <v>237000</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C8" s="3">
-        <v>20000</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E8" s="3">
+      <c r="F7" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="14" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="C8" s="8">
+        <v>6000</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E8" s="8">
         <v>120000</v>
       </c>
-      <c r="F8" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C9" s="3">
-        <v>6000</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E9" s="3">
+      <c r="F8" s="9">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="14" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="8">
+        <v>10000</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E9" s="8">
         <v>120000</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C10" s="3">
-        <v>10000</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E10" s="3">
-        <v>120000</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>116</v>
+      <c r="F9" s="9">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -2057,14 +2026,14 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -2078,9 +2047,9 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="14" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="B2" s="3">
         <v>2000</v>
@@ -2089,9 +2058,9 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="14" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="B3" s="3">
         <v>8000</v>
@@ -2100,9 +2069,9 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="14" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="B4" s="3">
         <v>3000</v>
@@ -2111,17 +2080,17 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="14" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="C5" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="14" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="B6" s="3">
         <v>3500</v>
@@ -2130,9 +2099,9 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="14" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="B7" s="3">
         <v>1000</v>
@@ -2141,9 +2110,9 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="14" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="B8" s="3">
         <v>5500</v>
@@ -2152,17 +2121,17 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="14" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="C9" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="14" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="B10" s="3">
         <v>1000</v>
@@ -2171,9 +2140,9 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="14" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="B11" s="3">
         <v>5000</v>
@@ -2182,17 +2151,17 @@
         <v>23000</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="14" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="C12" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="14" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="B13" s="3">
         <v>10000</v>
@@ -2201,17 +2170,17 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="14" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
       <c r="C14" s="3">
         <v>16000</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="14" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="B15" s="3">
         <v>500</v>
@@ -2220,9 +2189,9 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="14" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="B16" s="3">
         <v>3000</v>
@@ -2231,9 +2200,9 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="B17" s="3">
         <v>2500</v>
@@ -2242,9 +2211,9 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="B18" s="3">
         <v>200</v>
@@ -2253,17 +2222,17 @@
         <v>900</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="C19" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="B20" s="3">
         <v>1300</v>
@@ -2272,9 +2241,9 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="B21" s="3">
         <v>5000</v>
@@ -2283,9 +2252,9 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="B22" s="3">
         <v>1000</v>
@@ -2294,9 +2263,9 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="B23" s="3">
         <v>2700</v>
@@ -2305,17 +2274,17 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="C24" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="B25" s="3">
         <v>7500</v>
@@ -2324,9 +2293,9 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="B26" s="3">
         <v>20000</v>
@@ -2335,17 +2304,17 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="C27" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" ht="14" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c r="B28" s="3">
         <v>5000</v>
